--- a/metrics/transfer_time/cleaned_data/nginx_13._home.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_13._home.xlsx
@@ -2020,7 +2020,9 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>34867436</v>
+      </c>
       <c r="C144" t="n">
         <v>7065364</v>
       </c>
